--- a/05.Report/PGDip_model_results_KT.xlsx
+++ b/05.Report/PGDip_model_results_KT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsrorgza-my.sharepoint.com/personal/kebaabetswe_tlhoaele_rsr_org_za/Documents/Documents/Post Graduate Diploma IE_Data Science/Post Block Assignment 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{04AF3E1E-11D0-403B-BA90-EB50A8D264E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2F61E2-6F61-4DA8-8FCA-82A872776478}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{04AF3E1E-11D0-403B-BA90-EB50A8D264E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952B71EA-ABDB-429A-ABA9-43FB1D9B06B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-NN" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="NewResults_Mean" sheetId="7" r:id="rId6"/>
     <sheet name="NewResults_Graphs" sheetId="10" r:id="rId7"/>
     <sheet name="NewResults_End)" sheetId="11" r:id="rId8"/>
+    <sheet name="Weighted scores for K-NN" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="43">
   <si>
     <t>dataset_name</t>
   </si>
@@ -122,6 +123,54 @@
   <si>
     <t>k-Nearest Neighbour</t>
   </si>
+  <si>
+    <t>class 1</t>
+  </si>
+  <si>
+    <t>class 2</t>
+  </si>
+  <si>
+    <t>class 3</t>
+  </si>
+  <si>
+    <t>class 4</t>
+  </si>
+  <si>
+    <t>class 5</t>
+  </si>
+  <si>
+    <t>Test_accuracy</t>
+  </si>
+  <si>
+    <t>Class Column of Nb 70</t>
+  </si>
+  <si>
+    <t>Class Column of Nb 40</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>F_weighted</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>Class Column of Nb 10</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +219,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,14 +319,14 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5934,13 +5989,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,20 +6030,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
@@ -6014,13 +6055,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6080,13 +6121,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.87</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7262,13 +7303,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7328,13 +7369,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,20 +7410,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
@@ -7408,13 +7435,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23855,6 +23882,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25375,35 +25406,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -25572,35 +25603,35 @@
       <c r="K11" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -26207,40 +26238,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -26419,40 +26450,40 @@
       <c r="M11" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
@@ -26629,8 +26660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF06522-7AD8-8F4F-B195-C56521A4F0C4}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="AA38" sqref="AA38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26653,49 +26684,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="16"/>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -26892,49 +26923,49 @@
       <c r="R10" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="13"/>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P25" s="21"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -26948,7 +26979,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -26982,14 +27013,14 @@
       <c r="A27" s="17">
         <v>0.1</v>
       </c>
-      <c r="B27" s="23">
-        <v>0.51</v>
-      </c>
-      <c r="C27" s="23">
-        <v>0.51</v>
-      </c>
-      <c r="D27" s="23">
-        <v>0.87</v>
+      <c r="B27" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.99</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -27000,28 +27031,28 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O27" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P27" s="23">
-        <v>0.67</v>
+      <c r="N27" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="O27" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>0.4</v>
       </c>
-      <c r="B28" s="23">
-        <v>0.51</v>
-      </c>
-      <c r="C28" s="23">
-        <v>0.86</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0.51</v>
+      <c r="B28" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.99</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -27032,28 +27063,28 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O28" s="23">
-        <v>0.65</v>
-      </c>
-      <c r="P28" s="23">
-        <v>0.31</v>
+      <c r="N28" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="P28" s="21">
+        <v>0.99</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>0.7</v>
       </c>
-      <c r="B29" s="23">
-        <v>0.51</v>
-      </c>
-      <c r="C29" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="D29" s="23">
-        <v>0.93</v>
+      <c r="B29" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.99</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -27064,14 +27095,14 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O29" s="23">
-        <v>0.66</v>
-      </c>
-      <c r="P29" s="23">
-        <v>0.71</v>
+      <c r="N29" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="15:15" ht="18.75" x14ac:dyDescent="0.25">
@@ -27093,4 +27124,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C4E2BB-F11A-47F2-8F32-8089B061636E}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1322</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1288</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1173</v>
+      </c>
+      <c r="F2" s="14">
+        <v>104</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14">
+        <f>1322/3888</f>
+        <v>0.34002057613168724</v>
+      </c>
+      <c r="C3" s="14">
+        <f>1288/3888</f>
+        <v>0.33127572016460904</v>
+      </c>
+      <c r="D3" s="14">
+        <f>0/3888</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <f>1173/3888</f>
+        <v>0.30169753086419754</v>
+      </c>
+      <c r="F3" s="14">
+        <f>104/3888</f>
+        <v>2.6748971193415638E-2</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="14">
+        <f>1322/3888*1</f>
+        <v>0.34002057613168724</v>
+      </c>
+      <c r="C6" s="14">
+        <f>1288/3888*C5</f>
+        <v>0.33127572016460904</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14">
+        <f>1173/3888*1</f>
+        <v>0.30169753086419754</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(B6:F6)</f>
+        <v>0.97299382716049387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1322</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1286</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1173</v>
+      </c>
+      <c r="F9" s="14">
+        <v>98</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="14">
+        <f>1322/3888</f>
+        <v>0.34002057613168724</v>
+      </c>
+      <c r="C10" s="14">
+        <f>1286/3888</f>
+        <v>0.33076131687242799</v>
+      </c>
+      <c r="D10" s="14">
+        <f>0/3888</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <f>1173/3888</f>
+        <v>0.30169753086419754</v>
+      </c>
+      <c r="F10" s="14">
+        <f>98/3888</f>
+        <v>2.5205761316872428E-2</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14">
+        <f>1322/3888*1</f>
+        <v>0.34002057613168724</v>
+      </c>
+      <c r="C13" s="14">
+        <f>1286/3888*C12</f>
+        <v>0.33076131687242799</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <f>1173/3888*1</f>
+        <v>0.30169753086419754</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="14">
+        <f>SUM(B13:F13)</f>
+        <v>0.97247942386831276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1322</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1060</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1067</v>
+      </c>
+      <c r="F17" s="14">
+        <v>84</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="14">
+        <f>1322/3888</f>
+        <v>0.34002057613168724</v>
+      </c>
+      <c r="C18" s="14">
+        <f>1060/3888</f>
+        <v>0.27263374485596709</v>
+      </c>
+      <c r="D18" s="14">
+        <f>0/3888</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <f>1067/3888</f>
+        <v>0.2744341563786008</v>
+      </c>
+      <c r="F18" s="14">
+        <f>84/3888</f>
+        <v>2.1604938271604937E-2</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="14">
+        <f>1322/3888*1</f>
+        <v>0.34002057613168724</v>
+      </c>
+      <c r="C21" s="14">
+        <f>1286/3888*C20</f>
+        <v>0.33076131687242799</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
+        <f>1067/3888*1</f>
+        <v>0.2744341563786008</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="14">
+        <f>SUM(B21:F21)</f>
+        <v>0.94521604938271597</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>